--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lgi3-Stx1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Lgi3-Stx1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Lgi3</t>
+  </si>
+  <si>
+    <t>Stx1a</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Lgi3</t>
-  </si>
-  <si>
-    <t>Stx1a</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -546,10 +543,10 @@
         <v>1.719189</v>
       </c>
       <c r="I2">
-        <v>0.8738620456188184</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9122171124577967</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.1553855</v>
+        <v>3.015656</v>
       </c>
       <c r="N2">
-        <v>6.310770999999999</v>
+        <v>6.031312</v>
       </c>
       <c r="O2">
-        <v>0.3733794000532016</v>
+        <v>0.4777379505925223</v>
       </c>
       <c r="P2">
-        <v>0.3100738701276444</v>
+        <v>0.4316734744825179</v>
       </c>
       <c r="Q2">
-        <v>1.8082346807865</v>
+        <v>1.728160874328</v>
       </c>
       <c r="R2">
-        <v>10.849408084719</v>
+        <v>10.368965245968</v>
       </c>
       <c r="S2">
-        <v>0.3262820863224179</v>
+        <v>0.4777379505925223</v>
       </c>
       <c r="T2">
-        <v>0.2828546904564536</v>
+        <v>0.4316734744825179</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -608,10 +605,10 @@
         <v>1.719189</v>
       </c>
       <c r="I3">
-        <v>0.8738620456188184</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9122171124577967</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +623,22 @@
         <v>3.922874</v>
       </c>
       <c r="O3">
-        <v>0.1547323182966923</v>
+        <v>0.2071529141246758</v>
       </c>
       <c r="P3">
-        <v>0.1927467694839684</v>
+        <v>0.280768205912268</v>
       </c>
       <c r="Q3">
         <v>0.7493513143539999</v>
       </c>
       <c r="R3">
-        <v>6.744161829185999</v>
+        <v>6.744161829186</v>
       </c>
       <c r="S3">
-        <v>0.1352147001900897</v>
+        <v>0.2071529141246758</v>
       </c>
       <c r="T3">
-        <v>0.1758269014942342</v>
+        <v>0.280768205912268</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -670,40 +667,40 @@
         <v>1.719189</v>
       </c>
       <c r="I4">
-        <v>0.8738620456188184</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9122171124577967</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.06017566666666666</v>
+        <v>1.949506</v>
       </c>
       <c r="N4">
-        <v>0.180527</v>
+        <v>3.899012</v>
       </c>
       <c r="O4">
-        <v>0.007120636866018887</v>
+        <v>0.3088392711595175</v>
       </c>
       <c r="P4">
-        <v>0.008870026428234088</v>
+        <v>0.2790603532181772</v>
       </c>
       <c r="Q4">
-        <v>0.034484448067</v>
+        <v>1.117189756878</v>
       </c>
       <c r="R4">
-        <v>0.3103600326029999</v>
+        <v>6.703138541267999</v>
       </c>
       <c r="S4">
-        <v>0.006222454297848037</v>
+        <v>0.3088392711595175</v>
       </c>
       <c r="T4">
-        <v>0.008091389895788044</v>
+        <v>0.2790603532181772</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,412 +729,40 @@
         <v>1.719189</v>
       </c>
       <c r="I5">
-        <v>0.8738620456188184</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9122171124577967</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.8447865</v>
+        <v>0.03957766666666667</v>
       </c>
       <c r="N5">
-        <v>3.689573</v>
+        <v>0.118733</v>
       </c>
       <c r="O5">
-        <v>0.2182951264104642</v>
+        <v>0.006269864123284393</v>
       </c>
       <c r="P5">
-        <v>0.1812837415948802</v>
+        <v>0.008497966387036981</v>
       </c>
       <c r="Q5">
-        <v>1.0571788860495</v>
+        <v>0.022680496393</v>
       </c>
       <c r="R5">
-        <v>6.343073316297</v>
+        <v>0.204124467537</v>
       </c>
       <c r="S5">
-        <v>0.1907598257136668</v>
+        <v>0.006269864123284393</v>
       </c>
       <c r="T5">
-        <v>0.1653701312932269</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.573063</v>
-      </c>
-      <c r="H6">
-        <v>1.719189</v>
-      </c>
-      <c r="I6">
-        <v>0.8738620456188184</v>
-      </c>
-      <c r="J6">
-        <v>0.9122171124577967</v>
-      </c>
-      <c r="K6">
-        <v>3</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>2.082910333333333</v>
-      </c>
-      <c r="N6">
-        <v>6.248731</v>
-      </c>
-      <c r="O6">
-        <v>0.2464725183736232</v>
-      </c>
-      <c r="P6">
-        <v>0.3070255923652729</v>
-      </c>
-      <c r="Q6">
-        <v>1.193638844351</v>
-      </c>
-      <c r="R6">
-        <v>10.742749599159</v>
-      </c>
-      <c r="S6">
-        <v>0.2153829790947962</v>
-      </c>
-      <c r="T6">
-        <v>0.2800739993180938</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0.5</v>
-      </c>
-      <c r="G7">
-        <v>0.082719</v>
-      </c>
-      <c r="H7">
-        <v>0.165438</v>
-      </c>
-      <c r="I7">
-        <v>0.1261379543811816</v>
-      </c>
-      <c r="J7">
-        <v>0.08778288754220331</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>3.1553855</v>
-      </c>
-      <c r="N7">
-        <v>6.310770999999999</v>
-      </c>
-      <c r="O7">
-        <v>0.3733794000532016</v>
-      </c>
-      <c r="P7">
-        <v>0.3100738701276444</v>
-      </c>
-      <c r="Q7">
-        <v>0.2610103331745</v>
-      </c>
-      <c r="R7">
-        <v>1.044041332698</v>
-      </c>
-      <c r="S7">
-        <v>0.04709731373078368</v>
-      </c>
-      <c r="T7">
-        <v>0.02721917967119076</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.5</v>
-      </c>
-      <c r="G8">
-        <v>0.082719</v>
-      </c>
-      <c r="H8">
-        <v>0.165438</v>
-      </c>
-      <c r="I8">
-        <v>0.1261379543811816</v>
-      </c>
-      <c r="J8">
-        <v>0.08778288754220331</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>1.307624666666667</v>
-      </c>
-      <c r="N8">
-        <v>3.922874</v>
-      </c>
-      <c r="O8">
-        <v>0.1547323182966923</v>
-      </c>
-      <c r="P8">
-        <v>0.1927467694839684</v>
-      </c>
-      <c r="Q8">
-        <v>0.108165404802</v>
-      </c>
-      <c r="R8">
-        <v>0.6489924288119999</v>
-      </c>
-      <c r="S8">
-        <v>0.01951761810660264</v>
-      </c>
-      <c r="T8">
-        <v>0.01691986798973419</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.5</v>
-      </c>
-      <c r="G9">
-        <v>0.082719</v>
-      </c>
-      <c r="H9">
-        <v>0.165438</v>
-      </c>
-      <c r="I9">
-        <v>0.1261379543811816</v>
-      </c>
-      <c r="J9">
-        <v>0.08778288754220331</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.06017566666666666</v>
-      </c>
-      <c r="N9">
-        <v>0.180527</v>
-      </c>
-      <c r="O9">
-        <v>0.007120636866018887</v>
-      </c>
-      <c r="P9">
-        <v>0.008870026428234088</v>
-      </c>
-      <c r="Q9">
-        <v>0.004977670971</v>
-      </c>
-      <c r="R9">
-        <v>0.029866025826</v>
-      </c>
-      <c r="S9">
-        <v>0.00089818256817085</v>
-      </c>
-      <c r="T9">
-        <v>0.0007786365324460444</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.5</v>
-      </c>
-      <c r="G10">
-        <v>0.082719</v>
-      </c>
-      <c r="H10">
-        <v>0.165438</v>
-      </c>
-      <c r="I10">
-        <v>0.1261379543811816</v>
-      </c>
-      <c r="J10">
-        <v>0.08778288754220331</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.8447865</v>
-      </c>
-      <c r="N10">
-        <v>3.689573</v>
-      </c>
-      <c r="O10">
-        <v>0.2182951264104642</v>
-      </c>
-      <c r="P10">
-        <v>0.1812837415948802</v>
-      </c>
-      <c r="Q10">
-        <v>0.1525988944935</v>
-      </c>
-      <c r="R10">
-        <v>0.610395577974</v>
-      </c>
-      <c r="S10">
-        <v>0.02753530069679739</v>
-      </c>
-      <c r="T10">
-        <v>0.01591361030165321</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.5</v>
-      </c>
-      <c r="G11">
-        <v>0.082719</v>
-      </c>
-      <c r="H11">
-        <v>0.165438</v>
-      </c>
-      <c r="I11">
-        <v>0.1261379543811816</v>
-      </c>
-      <c r="J11">
-        <v>0.08778288754220331</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>2.082910333333333</v>
-      </c>
-      <c r="N11">
-        <v>6.248731</v>
-      </c>
-      <c r="O11">
-        <v>0.2464725183736232</v>
-      </c>
-      <c r="P11">
-        <v>0.3070255923652729</v>
-      </c>
-      <c r="Q11">
-        <v>0.172296259863</v>
-      </c>
-      <c r="R11">
-        <v>1.033777559178</v>
-      </c>
-      <c r="S11">
-        <v>0.03108953927882701</v>
-      </c>
-      <c r="T11">
-        <v>0.02695159304717911</v>
+        <v>0.008497966387036981</v>
       </c>
     </row>
   </sheetData>
